--- a/samples/SampleOracleResult.xlsx
+++ b/samples/SampleOracleResult.xlsx
@@ -870,141 +870,141 @@
               <c:f>SampleBBandOutput!$K$2:$K$1490</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="1314"/>
+                <c:ptCount val="1359"/>
                 <c:pt idx="0">
-                  <c:v>950</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>950</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>950</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>950</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>950</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>950</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>950</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>950</c:v>
+                  <c:v>50</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>950</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>950</c:v>
+                  <c:v>50</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>950</c:v>
+                  <c:v>50</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>950</c:v>
+                  <c:v>50</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>950</c:v>
+                  <c:v>50</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>950</c:v>
+                  <c:v>50</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>950</c:v>
+                  <c:v>50</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>950</c:v>
+                  <c:v>50</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>950</c:v>
+                  <c:v>50</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>950</c:v>
+                  <c:v>50</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>950</c:v>
+                  <c:v>50</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>950</c:v>
+                  <c:v>50</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>950</c:v>
+                  <c:v>50</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>950</c:v>
+                  <c:v>50</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>950</c:v>
+                  <c:v>50</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>950</c:v>
+                  <c:v>50</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>950</c:v>
+                  <c:v>50</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>950</c:v>
+                  <c:v>50</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>950</c:v>
+                  <c:v>50</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>950</c:v>
+                  <c:v>50</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>950</c:v>
+                  <c:v>50</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>950</c:v>
+                  <c:v>50</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>950</c:v>
+                  <c:v>50</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>950</c:v>
+                  <c:v>50</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>950</c:v>
+                  <c:v>50</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>950</c:v>
+                  <c:v>50</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>950</c:v>
+                  <c:v>50</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>950</c:v>
+                  <c:v>50</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>950</c:v>
+                  <c:v>50</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>950</c:v>
+                  <c:v>50</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>950</c:v>
+                  <c:v>50</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>950</c:v>
+                  <c:v>50</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>950</c:v>
+                  <c:v>50</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>950</c:v>
+                  <c:v>50</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>950</c:v>
+                  <c:v>50</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>950</c:v>
+                  <c:v>50</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>950</c:v>
+                  <c:v>50</c:v>
                 </c:pt>
                 <c:pt idx="45">
                   <c:v>950</c:v>
@@ -3116,139 +3116,139 @@
                   <c:v>950</c:v>
                 </c:pt>
                 <c:pt idx="748">
-                  <c:v>1650</c:v>
+                  <c:v>950</c:v>
                 </c:pt>
                 <c:pt idx="749">
-                  <c:v>1650</c:v>
+                  <c:v>950</c:v>
                 </c:pt>
                 <c:pt idx="750">
-                  <c:v>1650</c:v>
+                  <c:v>950</c:v>
                 </c:pt>
                 <c:pt idx="751">
-                  <c:v>1650</c:v>
+                  <c:v>950</c:v>
                 </c:pt>
                 <c:pt idx="752">
-                  <c:v>1650</c:v>
+                  <c:v>950</c:v>
                 </c:pt>
                 <c:pt idx="753">
-                  <c:v>1650</c:v>
+                  <c:v>950</c:v>
                 </c:pt>
                 <c:pt idx="754">
-                  <c:v>1650</c:v>
+                  <c:v>950</c:v>
                 </c:pt>
                 <c:pt idx="755">
-                  <c:v>1650</c:v>
+                  <c:v>950</c:v>
                 </c:pt>
                 <c:pt idx="756">
-                  <c:v>1650</c:v>
+                  <c:v>950</c:v>
                 </c:pt>
                 <c:pt idx="757">
-                  <c:v>1650</c:v>
+                  <c:v>950</c:v>
                 </c:pt>
                 <c:pt idx="758">
-                  <c:v>1650</c:v>
+                  <c:v>950</c:v>
                 </c:pt>
                 <c:pt idx="759">
-                  <c:v>1650</c:v>
+                  <c:v>950</c:v>
                 </c:pt>
                 <c:pt idx="760">
-                  <c:v>1650</c:v>
+                  <c:v>950</c:v>
                 </c:pt>
                 <c:pt idx="761">
-                  <c:v>1650</c:v>
+                  <c:v>950</c:v>
                 </c:pt>
                 <c:pt idx="762">
-                  <c:v>1650</c:v>
+                  <c:v>950</c:v>
                 </c:pt>
                 <c:pt idx="763">
-                  <c:v>1650</c:v>
+                  <c:v>950</c:v>
                 </c:pt>
                 <c:pt idx="764">
-                  <c:v>1650</c:v>
+                  <c:v>950</c:v>
                 </c:pt>
                 <c:pt idx="765">
-                  <c:v>1650</c:v>
+                  <c:v>950</c:v>
                 </c:pt>
                 <c:pt idx="766">
-                  <c:v>1650</c:v>
+                  <c:v>950</c:v>
                 </c:pt>
                 <c:pt idx="767">
-                  <c:v>1650</c:v>
+                  <c:v>950</c:v>
                 </c:pt>
                 <c:pt idx="768">
-                  <c:v>1650</c:v>
+                  <c:v>950</c:v>
                 </c:pt>
                 <c:pt idx="769">
-                  <c:v>1650</c:v>
+                  <c:v>950</c:v>
                 </c:pt>
                 <c:pt idx="770">
-                  <c:v>1650</c:v>
+                  <c:v>950</c:v>
                 </c:pt>
                 <c:pt idx="771">
-                  <c:v>1650</c:v>
+                  <c:v>950</c:v>
                 </c:pt>
                 <c:pt idx="772">
-                  <c:v>1650</c:v>
+                  <c:v>950</c:v>
                 </c:pt>
                 <c:pt idx="773">
-                  <c:v>1650</c:v>
+                  <c:v>950</c:v>
                 </c:pt>
                 <c:pt idx="774">
-                  <c:v>1650</c:v>
+                  <c:v>950</c:v>
                 </c:pt>
                 <c:pt idx="775">
-                  <c:v>1650</c:v>
+                  <c:v>950</c:v>
                 </c:pt>
                 <c:pt idx="776">
-                  <c:v>1650</c:v>
+                  <c:v>950</c:v>
                 </c:pt>
                 <c:pt idx="777">
-                  <c:v>1650</c:v>
+                  <c:v>950</c:v>
                 </c:pt>
                 <c:pt idx="778">
-                  <c:v>1650</c:v>
+                  <c:v>950</c:v>
                 </c:pt>
                 <c:pt idx="779">
-                  <c:v>1650</c:v>
+                  <c:v>950</c:v>
                 </c:pt>
                 <c:pt idx="780">
-                  <c:v>1650</c:v>
+                  <c:v>950</c:v>
                 </c:pt>
                 <c:pt idx="781">
-                  <c:v>1650</c:v>
+                  <c:v>950</c:v>
                 </c:pt>
                 <c:pt idx="782">
-                  <c:v>1650</c:v>
+                  <c:v>950</c:v>
                 </c:pt>
                 <c:pt idx="783">
-                  <c:v>1650</c:v>
+                  <c:v>950</c:v>
                 </c:pt>
                 <c:pt idx="784">
-                  <c:v>1650</c:v>
+                  <c:v>950</c:v>
                 </c:pt>
                 <c:pt idx="785">
-                  <c:v>1650</c:v>
+                  <c:v>950</c:v>
                 </c:pt>
                 <c:pt idx="786">
-                  <c:v>1650</c:v>
+                  <c:v>950</c:v>
                 </c:pt>
                 <c:pt idx="787">
-                  <c:v>1650</c:v>
+                  <c:v>950</c:v>
                 </c:pt>
                 <c:pt idx="788">
-                  <c:v>1650</c:v>
+                  <c:v>950</c:v>
                 </c:pt>
                 <c:pt idx="789">
-                  <c:v>1650</c:v>
+                  <c:v>950</c:v>
                 </c:pt>
                 <c:pt idx="790">
-                  <c:v>1650</c:v>
+                  <c:v>950</c:v>
                 </c:pt>
                 <c:pt idx="791">
-                  <c:v>1650</c:v>
+                  <c:v>950</c:v>
                 </c:pt>
                 <c:pt idx="792">
-                  <c:v>1650</c:v>
+                  <c:v>950</c:v>
                 </c:pt>
                 <c:pt idx="793">
                   <c:v>1650</c:v>
@@ -3377,142 +3377,142 @@
                   <c:v>1650</c:v>
                 </c:pt>
                 <c:pt idx="835">
+                  <c:v>1650</c:v>
+                </c:pt>
+                <c:pt idx="836">
+                  <c:v>1650</c:v>
+                </c:pt>
+                <c:pt idx="837">
+                  <c:v>1650</c:v>
+                </c:pt>
+                <c:pt idx="838">
+                  <c:v>1650</c:v>
+                </c:pt>
+                <c:pt idx="839">
+                  <c:v>1650</c:v>
+                </c:pt>
+                <c:pt idx="840">
+                  <c:v>1650</c:v>
+                </c:pt>
+                <c:pt idx="841">
+                  <c:v>1650</c:v>
+                </c:pt>
+                <c:pt idx="842">
+                  <c:v>1650</c:v>
+                </c:pt>
+                <c:pt idx="843">
+                  <c:v>1650</c:v>
+                </c:pt>
+                <c:pt idx="844">
+                  <c:v>1650</c:v>
+                </c:pt>
+                <c:pt idx="845">
+                  <c:v>1650</c:v>
+                </c:pt>
+                <c:pt idx="846">
+                  <c:v>1650</c:v>
+                </c:pt>
+                <c:pt idx="847">
+                  <c:v>1650</c:v>
+                </c:pt>
+                <c:pt idx="848">
+                  <c:v>1650</c:v>
+                </c:pt>
+                <c:pt idx="849">
+                  <c:v>1650</c:v>
+                </c:pt>
+                <c:pt idx="850">
+                  <c:v>1650</c:v>
+                </c:pt>
+                <c:pt idx="851">
+                  <c:v>1650</c:v>
+                </c:pt>
+                <c:pt idx="852">
+                  <c:v>1650</c:v>
+                </c:pt>
+                <c:pt idx="853">
+                  <c:v>1650</c:v>
+                </c:pt>
+                <c:pt idx="854">
+                  <c:v>1650</c:v>
+                </c:pt>
+                <c:pt idx="855">
+                  <c:v>1650</c:v>
+                </c:pt>
+                <c:pt idx="856">
+                  <c:v>1650</c:v>
+                </c:pt>
+                <c:pt idx="857">
+                  <c:v>1650</c:v>
+                </c:pt>
+                <c:pt idx="858">
+                  <c:v>1650</c:v>
+                </c:pt>
+                <c:pt idx="859">
+                  <c:v>1650</c:v>
+                </c:pt>
+                <c:pt idx="860">
+                  <c:v>1650</c:v>
+                </c:pt>
+                <c:pt idx="861">
+                  <c:v>1650</c:v>
+                </c:pt>
+                <c:pt idx="862">
+                  <c:v>1650</c:v>
+                </c:pt>
+                <c:pt idx="863">
+                  <c:v>1650</c:v>
+                </c:pt>
+                <c:pt idx="864">
+                  <c:v>1650</c:v>
+                </c:pt>
+                <c:pt idx="865">
+                  <c:v>1650</c:v>
+                </c:pt>
+                <c:pt idx="866">
+                  <c:v>1650</c:v>
+                </c:pt>
+                <c:pt idx="867">
+                  <c:v>1650</c:v>
+                </c:pt>
+                <c:pt idx="868">
+                  <c:v>1650</c:v>
+                </c:pt>
+                <c:pt idx="869">
+                  <c:v>1650</c:v>
+                </c:pt>
+                <c:pt idx="870">
+                  <c:v>1650</c:v>
+                </c:pt>
+                <c:pt idx="871">
+                  <c:v>1650</c:v>
+                </c:pt>
+                <c:pt idx="872">
+                  <c:v>1650</c:v>
+                </c:pt>
+                <c:pt idx="873">
+                  <c:v>1650</c:v>
+                </c:pt>
+                <c:pt idx="874">
+                  <c:v>1650</c:v>
+                </c:pt>
+                <c:pt idx="875">
+                  <c:v>1650</c:v>
+                </c:pt>
+                <c:pt idx="876">
+                  <c:v>1650</c:v>
+                </c:pt>
+                <c:pt idx="877">
+                  <c:v>1650</c:v>
+                </c:pt>
+                <c:pt idx="878">
+                  <c:v>1650</c:v>
+                </c:pt>
+                <c:pt idx="879">
+                  <c:v>1650</c:v>
+                </c:pt>
+                <c:pt idx="880">
                   <c:v>1850</c:v>
-                </c:pt>
-                <c:pt idx="836">
-                  <c:v>2400</c:v>
-                </c:pt>
-                <c:pt idx="837">
-                  <c:v>2400</c:v>
-                </c:pt>
-                <c:pt idx="838">
-                  <c:v>2400</c:v>
-                </c:pt>
-                <c:pt idx="839">
-                  <c:v>2400</c:v>
-                </c:pt>
-                <c:pt idx="840">
-                  <c:v>2400</c:v>
-                </c:pt>
-                <c:pt idx="841">
-                  <c:v>2400</c:v>
-                </c:pt>
-                <c:pt idx="842">
-                  <c:v>2400</c:v>
-                </c:pt>
-                <c:pt idx="843">
-                  <c:v>2400</c:v>
-                </c:pt>
-                <c:pt idx="844">
-                  <c:v>2400</c:v>
-                </c:pt>
-                <c:pt idx="845">
-                  <c:v>2400</c:v>
-                </c:pt>
-                <c:pt idx="846">
-                  <c:v>2400</c:v>
-                </c:pt>
-                <c:pt idx="847">
-                  <c:v>2400</c:v>
-                </c:pt>
-                <c:pt idx="848">
-                  <c:v>2400</c:v>
-                </c:pt>
-                <c:pt idx="849">
-                  <c:v>2400</c:v>
-                </c:pt>
-                <c:pt idx="850">
-                  <c:v>2400</c:v>
-                </c:pt>
-                <c:pt idx="851">
-                  <c:v>2400</c:v>
-                </c:pt>
-                <c:pt idx="852">
-                  <c:v>2400</c:v>
-                </c:pt>
-                <c:pt idx="853">
-                  <c:v>2400</c:v>
-                </c:pt>
-                <c:pt idx="854">
-                  <c:v>2400</c:v>
-                </c:pt>
-                <c:pt idx="855">
-                  <c:v>2400</c:v>
-                </c:pt>
-                <c:pt idx="856">
-                  <c:v>2400</c:v>
-                </c:pt>
-                <c:pt idx="857">
-                  <c:v>2400</c:v>
-                </c:pt>
-                <c:pt idx="858">
-                  <c:v>2400</c:v>
-                </c:pt>
-                <c:pt idx="859">
-                  <c:v>2400</c:v>
-                </c:pt>
-                <c:pt idx="860">
-                  <c:v>2400</c:v>
-                </c:pt>
-                <c:pt idx="861">
-                  <c:v>2400</c:v>
-                </c:pt>
-                <c:pt idx="862">
-                  <c:v>2400</c:v>
-                </c:pt>
-                <c:pt idx="863">
-                  <c:v>2400</c:v>
-                </c:pt>
-                <c:pt idx="864">
-                  <c:v>2400</c:v>
-                </c:pt>
-                <c:pt idx="865">
-                  <c:v>2400</c:v>
-                </c:pt>
-                <c:pt idx="866">
-                  <c:v>2400</c:v>
-                </c:pt>
-                <c:pt idx="867">
-                  <c:v>2400</c:v>
-                </c:pt>
-                <c:pt idx="868">
-                  <c:v>2400</c:v>
-                </c:pt>
-                <c:pt idx="869">
-                  <c:v>2400</c:v>
-                </c:pt>
-                <c:pt idx="870">
-                  <c:v>2400</c:v>
-                </c:pt>
-                <c:pt idx="871">
-                  <c:v>2400</c:v>
-                </c:pt>
-                <c:pt idx="872">
-                  <c:v>2400</c:v>
-                </c:pt>
-                <c:pt idx="873">
-                  <c:v>2400</c:v>
-                </c:pt>
-                <c:pt idx="874">
-                  <c:v>2400</c:v>
-                </c:pt>
-                <c:pt idx="875">
-                  <c:v>2400</c:v>
-                </c:pt>
-                <c:pt idx="876">
-                  <c:v>2400</c:v>
-                </c:pt>
-                <c:pt idx="877">
-                  <c:v>2400</c:v>
-                </c:pt>
-                <c:pt idx="878">
-                  <c:v>2400</c:v>
-                </c:pt>
-                <c:pt idx="879">
-                  <c:v>2400</c:v>
-                </c:pt>
-                <c:pt idx="880">
-                  <c:v>2400</c:v>
                 </c:pt>
                 <c:pt idx="881">
                   <c:v>2400</c:v>
@@ -3692,145 +3692,145 @@
                   <c:v>2400</c:v>
                 </c:pt>
                 <c:pt idx="940">
+                  <c:v>2400</c:v>
+                </c:pt>
+                <c:pt idx="941">
+                  <c:v>2400</c:v>
+                </c:pt>
+                <c:pt idx="942">
+                  <c:v>2400</c:v>
+                </c:pt>
+                <c:pt idx="943">
+                  <c:v>2400</c:v>
+                </c:pt>
+                <c:pt idx="944">
+                  <c:v>2400</c:v>
+                </c:pt>
+                <c:pt idx="945">
+                  <c:v>2400</c:v>
+                </c:pt>
+                <c:pt idx="946">
+                  <c:v>2400</c:v>
+                </c:pt>
+                <c:pt idx="947">
+                  <c:v>2400</c:v>
+                </c:pt>
+                <c:pt idx="948">
+                  <c:v>2400</c:v>
+                </c:pt>
+                <c:pt idx="949">
+                  <c:v>2400</c:v>
+                </c:pt>
+                <c:pt idx="950">
+                  <c:v>2400</c:v>
+                </c:pt>
+                <c:pt idx="951">
+                  <c:v>2400</c:v>
+                </c:pt>
+                <c:pt idx="952">
+                  <c:v>2400</c:v>
+                </c:pt>
+                <c:pt idx="953">
+                  <c:v>2400</c:v>
+                </c:pt>
+                <c:pt idx="954">
+                  <c:v>2400</c:v>
+                </c:pt>
+                <c:pt idx="955">
+                  <c:v>2400</c:v>
+                </c:pt>
+                <c:pt idx="956">
+                  <c:v>2400</c:v>
+                </c:pt>
+                <c:pt idx="957">
+                  <c:v>2400</c:v>
+                </c:pt>
+                <c:pt idx="958">
+                  <c:v>2400</c:v>
+                </c:pt>
+                <c:pt idx="959">
+                  <c:v>2400</c:v>
+                </c:pt>
+                <c:pt idx="960">
+                  <c:v>2400</c:v>
+                </c:pt>
+                <c:pt idx="961">
+                  <c:v>2400</c:v>
+                </c:pt>
+                <c:pt idx="962">
+                  <c:v>2400</c:v>
+                </c:pt>
+                <c:pt idx="963">
+                  <c:v>2400</c:v>
+                </c:pt>
+                <c:pt idx="964">
+                  <c:v>2400</c:v>
+                </c:pt>
+                <c:pt idx="965">
+                  <c:v>2400</c:v>
+                </c:pt>
+                <c:pt idx="966">
+                  <c:v>2400</c:v>
+                </c:pt>
+                <c:pt idx="967">
+                  <c:v>2400</c:v>
+                </c:pt>
+                <c:pt idx="968">
+                  <c:v>2400</c:v>
+                </c:pt>
+                <c:pt idx="969">
+                  <c:v>2400</c:v>
+                </c:pt>
+                <c:pt idx="970">
+                  <c:v>2400</c:v>
+                </c:pt>
+                <c:pt idx="971">
+                  <c:v>2400</c:v>
+                </c:pt>
+                <c:pt idx="972">
+                  <c:v>2400</c:v>
+                </c:pt>
+                <c:pt idx="973">
+                  <c:v>2400</c:v>
+                </c:pt>
+                <c:pt idx="974">
+                  <c:v>2400</c:v>
+                </c:pt>
+                <c:pt idx="975">
+                  <c:v>2400</c:v>
+                </c:pt>
+                <c:pt idx="976">
+                  <c:v>2400</c:v>
+                </c:pt>
+                <c:pt idx="977">
+                  <c:v>2400</c:v>
+                </c:pt>
+                <c:pt idx="978">
+                  <c:v>2400</c:v>
+                </c:pt>
+                <c:pt idx="979">
+                  <c:v>2400</c:v>
+                </c:pt>
+                <c:pt idx="980">
+                  <c:v>2400</c:v>
+                </c:pt>
+                <c:pt idx="981">
+                  <c:v>2400</c:v>
+                </c:pt>
+                <c:pt idx="982">
+                  <c:v>2400</c:v>
+                </c:pt>
+                <c:pt idx="983">
+                  <c:v>2400</c:v>
+                </c:pt>
+                <c:pt idx="984">
+                  <c:v>2400</c:v>
+                </c:pt>
+                <c:pt idx="985">
                   <c:v>3800</c:v>
                 </c:pt>
-                <c:pt idx="941">
+                <c:pt idx="986">
                   <c:v>3700</c:v>
-                </c:pt>
-                <c:pt idx="942">
-                  <c:v>3900</c:v>
-                </c:pt>
-                <c:pt idx="943">
-                  <c:v>3900</c:v>
-                </c:pt>
-                <c:pt idx="944">
-                  <c:v>3900</c:v>
-                </c:pt>
-                <c:pt idx="945">
-                  <c:v>3900</c:v>
-                </c:pt>
-                <c:pt idx="946">
-                  <c:v>3900</c:v>
-                </c:pt>
-                <c:pt idx="947">
-                  <c:v>3900</c:v>
-                </c:pt>
-                <c:pt idx="948">
-                  <c:v>3900</c:v>
-                </c:pt>
-                <c:pt idx="949">
-                  <c:v>3900</c:v>
-                </c:pt>
-                <c:pt idx="950">
-                  <c:v>3900</c:v>
-                </c:pt>
-                <c:pt idx="951">
-                  <c:v>3900</c:v>
-                </c:pt>
-                <c:pt idx="952">
-                  <c:v>3900</c:v>
-                </c:pt>
-                <c:pt idx="953">
-                  <c:v>3900</c:v>
-                </c:pt>
-                <c:pt idx="954">
-                  <c:v>3900</c:v>
-                </c:pt>
-                <c:pt idx="955">
-                  <c:v>3900</c:v>
-                </c:pt>
-                <c:pt idx="956">
-                  <c:v>3900</c:v>
-                </c:pt>
-                <c:pt idx="957">
-                  <c:v>3900</c:v>
-                </c:pt>
-                <c:pt idx="958">
-                  <c:v>3900</c:v>
-                </c:pt>
-                <c:pt idx="959">
-                  <c:v>3900</c:v>
-                </c:pt>
-                <c:pt idx="960">
-                  <c:v>3900</c:v>
-                </c:pt>
-                <c:pt idx="961">
-                  <c:v>3900</c:v>
-                </c:pt>
-                <c:pt idx="962">
-                  <c:v>3900</c:v>
-                </c:pt>
-                <c:pt idx="963">
-                  <c:v>3900</c:v>
-                </c:pt>
-                <c:pt idx="964">
-                  <c:v>3900</c:v>
-                </c:pt>
-                <c:pt idx="965">
-                  <c:v>3900</c:v>
-                </c:pt>
-                <c:pt idx="966">
-                  <c:v>3900</c:v>
-                </c:pt>
-                <c:pt idx="967">
-                  <c:v>3900</c:v>
-                </c:pt>
-                <c:pt idx="968">
-                  <c:v>3900</c:v>
-                </c:pt>
-                <c:pt idx="969">
-                  <c:v>3900</c:v>
-                </c:pt>
-                <c:pt idx="970">
-                  <c:v>3900</c:v>
-                </c:pt>
-                <c:pt idx="971">
-                  <c:v>3900</c:v>
-                </c:pt>
-                <c:pt idx="972">
-                  <c:v>3900</c:v>
-                </c:pt>
-                <c:pt idx="973">
-                  <c:v>3900</c:v>
-                </c:pt>
-                <c:pt idx="974">
-                  <c:v>3900</c:v>
-                </c:pt>
-                <c:pt idx="975">
-                  <c:v>3900</c:v>
-                </c:pt>
-                <c:pt idx="976">
-                  <c:v>3900</c:v>
-                </c:pt>
-                <c:pt idx="977">
-                  <c:v>3900</c:v>
-                </c:pt>
-                <c:pt idx="978">
-                  <c:v>3900</c:v>
-                </c:pt>
-                <c:pt idx="979">
-                  <c:v>3900</c:v>
-                </c:pt>
-                <c:pt idx="980">
-                  <c:v>3900</c:v>
-                </c:pt>
-                <c:pt idx="981">
-                  <c:v>3900</c:v>
-                </c:pt>
-                <c:pt idx="982">
-                  <c:v>3900</c:v>
-                </c:pt>
-                <c:pt idx="983">
-                  <c:v>3900</c:v>
-                </c:pt>
-                <c:pt idx="984">
-                  <c:v>3900</c:v>
-                </c:pt>
-                <c:pt idx="985">
-                  <c:v>3900</c:v>
-                </c:pt>
-                <c:pt idx="986">
-                  <c:v>3900</c:v>
                 </c:pt>
                 <c:pt idx="987">
                   <c:v>3900</c:v>
@@ -4046,154 +4046,154 @@
                   <c:v>3900</c:v>
                 </c:pt>
                 <c:pt idx="1058">
+                  <c:v>3900</c:v>
+                </c:pt>
+                <c:pt idx="1059">
+                  <c:v>3900</c:v>
+                </c:pt>
+                <c:pt idx="1060">
+                  <c:v>3900</c:v>
+                </c:pt>
+                <c:pt idx="1061">
+                  <c:v>3900</c:v>
+                </c:pt>
+                <c:pt idx="1062">
+                  <c:v>3900</c:v>
+                </c:pt>
+                <c:pt idx="1063">
+                  <c:v>3900</c:v>
+                </c:pt>
+                <c:pt idx="1064">
+                  <c:v>3900</c:v>
+                </c:pt>
+                <c:pt idx="1065">
+                  <c:v>3900</c:v>
+                </c:pt>
+                <c:pt idx="1066">
+                  <c:v>3900</c:v>
+                </c:pt>
+                <c:pt idx="1067">
+                  <c:v>3900</c:v>
+                </c:pt>
+                <c:pt idx="1068">
+                  <c:v>3900</c:v>
+                </c:pt>
+                <c:pt idx="1069">
+                  <c:v>3900</c:v>
+                </c:pt>
+                <c:pt idx="1070">
+                  <c:v>3900</c:v>
+                </c:pt>
+                <c:pt idx="1071">
+                  <c:v>3900</c:v>
+                </c:pt>
+                <c:pt idx="1072">
+                  <c:v>3900</c:v>
+                </c:pt>
+                <c:pt idx="1073">
+                  <c:v>3900</c:v>
+                </c:pt>
+                <c:pt idx="1074">
+                  <c:v>3900</c:v>
+                </c:pt>
+                <c:pt idx="1075">
+                  <c:v>3900</c:v>
+                </c:pt>
+                <c:pt idx="1076">
+                  <c:v>3900</c:v>
+                </c:pt>
+                <c:pt idx="1077">
+                  <c:v>3900</c:v>
+                </c:pt>
+                <c:pt idx="1078">
+                  <c:v>3900</c:v>
+                </c:pt>
+                <c:pt idx="1079">
+                  <c:v>3900</c:v>
+                </c:pt>
+                <c:pt idx="1080">
+                  <c:v>3900</c:v>
+                </c:pt>
+                <c:pt idx="1081">
+                  <c:v>3900</c:v>
+                </c:pt>
+                <c:pt idx="1082">
+                  <c:v>3900</c:v>
+                </c:pt>
+                <c:pt idx="1083">
+                  <c:v>3900</c:v>
+                </c:pt>
+                <c:pt idx="1084">
+                  <c:v>3900</c:v>
+                </c:pt>
+                <c:pt idx="1085">
+                  <c:v>3900</c:v>
+                </c:pt>
+                <c:pt idx="1086">
+                  <c:v>3900</c:v>
+                </c:pt>
+                <c:pt idx="1087">
+                  <c:v>3900</c:v>
+                </c:pt>
+                <c:pt idx="1088">
+                  <c:v>3900</c:v>
+                </c:pt>
+                <c:pt idx="1089">
+                  <c:v>3900</c:v>
+                </c:pt>
+                <c:pt idx="1090">
+                  <c:v>3900</c:v>
+                </c:pt>
+                <c:pt idx="1091">
+                  <c:v>3900</c:v>
+                </c:pt>
+                <c:pt idx="1092">
+                  <c:v>3900</c:v>
+                </c:pt>
+                <c:pt idx="1093">
+                  <c:v>3900</c:v>
+                </c:pt>
+                <c:pt idx="1094">
+                  <c:v>3900</c:v>
+                </c:pt>
+                <c:pt idx="1095">
+                  <c:v>3900</c:v>
+                </c:pt>
+                <c:pt idx="1096">
+                  <c:v>3900</c:v>
+                </c:pt>
+                <c:pt idx="1097">
+                  <c:v>3900</c:v>
+                </c:pt>
+                <c:pt idx="1098">
+                  <c:v>3900</c:v>
+                </c:pt>
+                <c:pt idx="1099">
+                  <c:v>3900</c:v>
+                </c:pt>
+                <c:pt idx="1100">
+                  <c:v>3900</c:v>
+                </c:pt>
+                <c:pt idx="1101">
+                  <c:v>3900</c:v>
+                </c:pt>
+                <c:pt idx="1102">
+                  <c:v>3900</c:v>
+                </c:pt>
+                <c:pt idx="1103">
                   <c:v>5100</c:v>
                 </c:pt>
-                <c:pt idx="1059">
+                <c:pt idx="1104">
                   <c:v>5100</c:v>
                 </c:pt>
-                <c:pt idx="1060">
+                <c:pt idx="1105">
                   <c:v>5100</c:v>
                 </c:pt>
-                <c:pt idx="1061">
+                <c:pt idx="1106">
                   <c:v>6400</c:v>
                 </c:pt>
-                <c:pt idx="1062">
+                <c:pt idx="1107">
                   <c:v>7800</c:v>
-                </c:pt>
-                <c:pt idx="1063">
-                  <c:v>7900</c:v>
-                </c:pt>
-                <c:pt idx="1064">
-                  <c:v>7900</c:v>
-                </c:pt>
-                <c:pt idx="1065">
-                  <c:v>7900</c:v>
-                </c:pt>
-                <c:pt idx="1066">
-                  <c:v>7900</c:v>
-                </c:pt>
-                <c:pt idx="1067">
-                  <c:v>7900</c:v>
-                </c:pt>
-                <c:pt idx="1068">
-                  <c:v>7900</c:v>
-                </c:pt>
-                <c:pt idx="1069">
-                  <c:v>7900</c:v>
-                </c:pt>
-                <c:pt idx="1070">
-                  <c:v>7900</c:v>
-                </c:pt>
-                <c:pt idx="1071">
-                  <c:v>7900</c:v>
-                </c:pt>
-                <c:pt idx="1072">
-                  <c:v>7900</c:v>
-                </c:pt>
-                <c:pt idx="1073">
-                  <c:v>7900</c:v>
-                </c:pt>
-                <c:pt idx="1074">
-                  <c:v>7900</c:v>
-                </c:pt>
-                <c:pt idx="1075">
-                  <c:v>7900</c:v>
-                </c:pt>
-                <c:pt idx="1076">
-                  <c:v>7900</c:v>
-                </c:pt>
-                <c:pt idx="1077">
-                  <c:v>7900</c:v>
-                </c:pt>
-                <c:pt idx="1078">
-                  <c:v>7900</c:v>
-                </c:pt>
-                <c:pt idx="1079">
-                  <c:v>7900</c:v>
-                </c:pt>
-                <c:pt idx="1080">
-                  <c:v>7900</c:v>
-                </c:pt>
-                <c:pt idx="1081">
-                  <c:v>7900</c:v>
-                </c:pt>
-                <c:pt idx="1082">
-                  <c:v>7900</c:v>
-                </c:pt>
-                <c:pt idx="1083">
-                  <c:v>7900</c:v>
-                </c:pt>
-                <c:pt idx="1084">
-                  <c:v>7900</c:v>
-                </c:pt>
-                <c:pt idx="1085">
-                  <c:v>7900</c:v>
-                </c:pt>
-                <c:pt idx="1086">
-                  <c:v>7900</c:v>
-                </c:pt>
-                <c:pt idx="1087">
-                  <c:v>7900</c:v>
-                </c:pt>
-                <c:pt idx="1088">
-                  <c:v>7900</c:v>
-                </c:pt>
-                <c:pt idx="1089">
-                  <c:v>7900</c:v>
-                </c:pt>
-                <c:pt idx="1090">
-                  <c:v>7900</c:v>
-                </c:pt>
-                <c:pt idx="1091">
-                  <c:v>7900</c:v>
-                </c:pt>
-                <c:pt idx="1092">
-                  <c:v>7900</c:v>
-                </c:pt>
-                <c:pt idx="1093">
-                  <c:v>7900</c:v>
-                </c:pt>
-                <c:pt idx="1094">
-                  <c:v>7900</c:v>
-                </c:pt>
-                <c:pt idx="1095">
-                  <c:v>7900</c:v>
-                </c:pt>
-                <c:pt idx="1096">
-                  <c:v>7900</c:v>
-                </c:pt>
-                <c:pt idx="1097">
-                  <c:v>7900</c:v>
-                </c:pt>
-                <c:pt idx="1098">
-                  <c:v>7900</c:v>
-                </c:pt>
-                <c:pt idx="1099">
-                  <c:v>7900</c:v>
-                </c:pt>
-                <c:pt idx="1100">
-                  <c:v>7900</c:v>
-                </c:pt>
-                <c:pt idx="1101">
-                  <c:v>7900</c:v>
-                </c:pt>
-                <c:pt idx="1102">
-                  <c:v>7900</c:v>
-                </c:pt>
-                <c:pt idx="1103">
-                  <c:v>7900</c:v>
-                </c:pt>
-                <c:pt idx="1104">
-                  <c:v>7900</c:v>
-                </c:pt>
-                <c:pt idx="1105">
-                  <c:v>7900</c:v>
-                </c:pt>
-                <c:pt idx="1106">
-                  <c:v>7900</c:v>
-                </c:pt>
-                <c:pt idx="1107">
-                  <c:v>7900</c:v>
                 </c:pt>
                 <c:pt idx="1108">
                   <c:v>7900</c:v>
@@ -4580,169 +4580,169 @@
                   <c:v>7900</c:v>
                 </c:pt>
                 <c:pt idx="1236">
+                  <c:v>7900</c:v>
+                </c:pt>
+                <c:pt idx="1237">
+                  <c:v>7900</c:v>
+                </c:pt>
+                <c:pt idx="1238">
+                  <c:v>7900</c:v>
+                </c:pt>
+                <c:pt idx="1239">
+                  <c:v>7900</c:v>
+                </c:pt>
+                <c:pt idx="1240">
+                  <c:v>7900</c:v>
+                </c:pt>
+                <c:pt idx="1241">
+                  <c:v>7900</c:v>
+                </c:pt>
+                <c:pt idx="1242">
+                  <c:v>7900</c:v>
+                </c:pt>
+                <c:pt idx="1243">
+                  <c:v>7900</c:v>
+                </c:pt>
+                <c:pt idx="1244">
+                  <c:v>7900</c:v>
+                </c:pt>
+                <c:pt idx="1245">
+                  <c:v>7900</c:v>
+                </c:pt>
+                <c:pt idx="1246">
+                  <c:v>7900</c:v>
+                </c:pt>
+                <c:pt idx="1247">
+                  <c:v>7900</c:v>
+                </c:pt>
+                <c:pt idx="1248">
+                  <c:v>7900</c:v>
+                </c:pt>
+                <c:pt idx="1249">
+                  <c:v>7900</c:v>
+                </c:pt>
+                <c:pt idx="1250">
+                  <c:v>7900</c:v>
+                </c:pt>
+                <c:pt idx="1251">
+                  <c:v>7900</c:v>
+                </c:pt>
+                <c:pt idx="1252">
+                  <c:v>7900</c:v>
+                </c:pt>
+                <c:pt idx="1253">
+                  <c:v>7900</c:v>
+                </c:pt>
+                <c:pt idx="1254">
+                  <c:v>7900</c:v>
+                </c:pt>
+                <c:pt idx="1255">
+                  <c:v>7900</c:v>
+                </c:pt>
+                <c:pt idx="1256">
+                  <c:v>7900</c:v>
+                </c:pt>
+                <c:pt idx="1257">
+                  <c:v>7900</c:v>
+                </c:pt>
+                <c:pt idx="1258">
+                  <c:v>7900</c:v>
+                </c:pt>
+                <c:pt idx="1259">
+                  <c:v>7900</c:v>
+                </c:pt>
+                <c:pt idx="1260">
+                  <c:v>7900</c:v>
+                </c:pt>
+                <c:pt idx="1261">
+                  <c:v>7900</c:v>
+                </c:pt>
+                <c:pt idx="1262">
+                  <c:v>7900</c:v>
+                </c:pt>
+                <c:pt idx="1263">
+                  <c:v>7900</c:v>
+                </c:pt>
+                <c:pt idx="1264">
+                  <c:v>7900</c:v>
+                </c:pt>
+                <c:pt idx="1265">
+                  <c:v>7900</c:v>
+                </c:pt>
+                <c:pt idx="1266">
+                  <c:v>7900</c:v>
+                </c:pt>
+                <c:pt idx="1267">
+                  <c:v>7900</c:v>
+                </c:pt>
+                <c:pt idx="1268">
+                  <c:v>7900</c:v>
+                </c:pt>
+                <c:pt idx="1269">
+                  <c:v>7900</c:v>
+                </c:pt>
+                <c:pt idx="1270">
+                  <c:v>7900</c:v>
+                </c:pt>
+                <c:pt idx="1271">
+                  <c:v>7900</c:v>
+                </c:pt>
+                <c:pt idx="1272">
+                  <c:v>7900</c:v>
+                </c:pt>
+                <c:pt idx="1273">
+                  <c:v>7900</c:v>
+                </c:pt>
+                <c:pt idx="1274">
+                  <c:v>7900</c:v>
+                </c:pt>
+                <c:pt idx="1275">
+                  <c:v>7900</c:v>
+                </c:pt>
+                <c:pt idx="1276">
+                  <c:v>7900</c:v>
+                </c:pt>
+                <c:pt idx="1277">
+                  <c:v>7900</c:v>
+                </c:pt>
+                <c:pt idx="1278">
+                  <c:v>7900</c:v>
+                </c:pt>
+                <c:pt idx="1279">
+                  <c:v>7900</c:v>
+                </c:pt>
+                <c:pt idx="1280">
+                  <c:v>7900</c:v>
+                </c:pt>
+                <c:pt idx="1281">
                   <c:v>9000</c:v>
                 </c:pt>
-                <c:pt idx="1237">
+                <c:pt idx="1282">
                   <c:v>9300</c:v>
                 </c:pt>
-                <c:pt idx="1238">
+                <c:pt idx="1283">
                   <c:v>9300</c:v>
                 </c:pt>
-                <c:pt idx="1239">
+                <c:pt idx="1284">
                   <c:v>9350</c:v>
                 </c:pt>
-                <c:pt idx="1240">
+                <c:pt idx="1285">
                   <c:v>9300</c:v>
                 </c:pt>
-                <c:pt idx="1241">
+                <c:pt idx="1286">
                   <c:v>9300</c:v>
                 </c:pt>
-                <c:pt idx="1242">
+                <c:pt idx="1287">
                   <c:v>9400</c:v>
                 </c:pt>
-                <c:pt idx="1243">
+                <c:pt idx="1288">
                   <c:v>9450</c:v>
                 </c:pt>
-                <c:pt idx="1244">
+                <c:pt idx="1289">
                   <c:v>9450</c:v>
                 </c:pt>
-                <c:pt idx="1245">
+                <c:pt idx="1290">
                   <c:v>8100</c:v>
-                </c:pt>
-                <c:pt idx="1246">
-                  <c:v>9500</c:v>
-                </c:pt>
-                <c:pt idx="1247">
-                  <c:v>9500</c:v>
-                </c:pt>
-                <c:pt idx="1248">
-                  <c:v>9500</c:v>
-                </c:pt>
-                <c:pt idx="1249">
-                  <c:v>9500</c:v>
-                </c:pt>
-                <c:pt idx="1250">
-                  <c:v>9500</c:v>
-                </c:pt>
-                <c:pt idx="1251">
-                  <c:v>9500</c:v>
-                </c:pt>
-                <c:pt idx="1252">
-                  <c:v>9500</c:v>
-                </c:pt>
-                <c:pt idx="1253">
-                  <c:v>9500</c:v>
-                </c:pt>
-                <c:pt idx="1254">
-                  <c:v>9500</c:v>
-                </c:pt>
-                <c:pt idx="1255">
-                  <c:v>9500</c:v>
-                </c:pt>
-                <c:pt idx="1256">
-                  <c:v>9500</c:v>
-                </c:pt>
-                <c:pt idx="1257">
-                  <c:v>9500</c:v>
-                </c:pt>
-                <c:pt idx="1258">
-                  <c:v>9500</c:v>
-                </c:pt>
-                <c:pt idx="1259">
-                  <c:v>9500</c:v>
-                </c:pt>
-                <c:pt idx="1260">
-                  <c:v>9500</c:v>
-                </c:pt>
-                <c:pt idx="1261">
-                  <c:v>9500</c:v>
-                </c:pt>
-                <c:pt idx="1262">
-                  <c:v>9500</c:v>
-                </c:pt>
-                <c:pt idx="1263">
-                  <c:v>9500</c:v>
-                </c:pt>
-                <c:pt idx="1264">
-                  <c:v>9500</c:v>
-                </c:pt>
-                <c:pt idx="1265">
-                  <c:v>9500</c:v>
-                </c:pt>
-                <c:pt idx="1266">
-                  <c:v>9500</c:v>
-                </c:pt>
-                <c:pt idx="1267">
-                  <c:v>9500</c:v>
-                </c:pt>
-                <c:pt idx="1268">
-                  <c:v>9500</c:v>
-                </c:pt>
-                <c:pt idx="1269">
-                  <c:v>9500</c:v>
-                </c:pt>
-                <c:pt idx="1270">
-                  <c:v>9500</c:v>
-                </c:pt>
-                <c:pt idx="1271">
-                  <c:v>9500</c:v>
-                </c:pt>
-                <c:pt idx="1272">
-                  <c:v>9500</c:v>
-                </c:pt>
-                <c:pt idx="1273">
-                  <c:v>9500</c:v>
-                </c:pt>
-                <c:pt idx="1274">
-                  <c:v>9500</c:v>
-                </c:pt>
-                <c:pt idx="1275">
-                  <c:v>9500</c:v>
-                </c:pt>
-                <c:pt idx="1276">
-                  <c:v>9500</c:v>
-                </c:pt>
-                <c:pt idx="1277">
-                  <c:v>9500</c:v>
-                </c:pt>
-                <c:pt idx="1278">
-                  <c:v>9500</c:v>
-                </c:pt>
-                <c:pt idx="1279">
-                  <c:v>9500</c:v>
-                </c:pt>
-                <c:pt idx="1280">
-                  <c:v>9500</c:v>
-                </c:pt>
-                <c:pt idx="1281">
-                  <c:v>9500</c:v>
-                </c:pt>
-                <c:pt idx="1282">
-                  <c:v>9500</c:v>
-                </c:pt>
-                <c:pt idx="1283">
-                  <c:v>9500</c:v>
-                </c:pt>
-                <c:pt idx="1284">
-                  <c:v>9500</c:v>
-                </c:pt>
-                <c:pt idx="1285">
-                  <c:v>9500</c:v>
-                </c:pt>
-                <c:pt idx="1286">
-                  <c:v>9500</c:v>
-                </c:pt>
-                <c:pt idx="1287">
-                  <c:v>9500</c:v>
-                </c:pt>
-                <c:pt idx="1288">
-                  <c:v>9500</c:v>
-                </c:pt>
-                <c:pt idx="1289">
-                  <c:v>9500</c:v>
-                </c:pt>
-                <c:pt idx="1290">
-                  <c:v>9500</c:v>
                 </c:pt>
                 <c:pt idx="1291">
                   <c:v>9500</c:v>
@@ -4796,6 +4796,141 @@
                   <c:v>9500</c:v>
                 </c:pt>
                 <c:pt idx="1308">
+                  <c:v>9500</c:v>
+                </c:pt>
+                <c:pt idx="1309">
+                  <c:v>9500</c:v>
+                </c:pt>
+                <c:pt idx="1310">
+                  <c:v>9500</c:v>
+                </c:pt>
+                <c:pt idx="1311">
+                  <c:v>9500</c:v>
+                </c:pt>
+                <c:pt idx="1312">
+                  <c:v>9500</c:v>
+                </c:pt>
+                <c:pt idx="1313">
+                  <c:v>9500</c:v>
+                </c:pt>
+                <c:pt idx="1314">
+                  <c:v>9500</c:v>
+                </c:pt>
+                <c:pt idx="1315">
+                  <c:v>9500</c:v>
+                </c:pt>
+                <c:pt idx="1316">
+                  <c:v>9500</c:v>
+                </c:pt>
+                <c:pt idx="1317">
+                  <c:v>9500</c:v>
+                </c:pt>
+                <c:pt idx="1318">
+                  <c:v>9500</c:v>
+                </c:pt>
+                <c:pt idx="1319">
+                  <c:v>9500</c:v>
+                </c:pt>
+                <c:pt idx="1320">
+                  <c:v>9500</c:v>
+                </c:pt>
+                <c:pt idx="1321">
+                  <c:v>9500</c:v>
+                </c:pt>
+                <c:pt idx="1322">
+                  <c:v>9500</c:v>
+                </c:pt>
+                <c:pt idx="1323">
+                  <c:v>9500</c:v>
+                </c:pt>
+                <c:pt idx="1324">
+                  <c:v>9500</c:v>
+                </c:pt>
+                <c:pt idx="1325">
+                  <c:v>9500</c:v>
+                </c:pt>
+                <c:pt idx="1326">
+                  <c:v>9500</c:v>
+                </c:pt>
+                <c:pt idx="1327">
+                  <c:v>9500</c:v>
+                </c:pt>
+                <c:pt idx="1328">
+                  <c:v>9500</c:v>
+                </c:pt>
+                <c:pt idx="1329">
+                  <c:v>9500</c:v>
+                </c:pt>
+                <c:pt idx="1330">
+                  <c:v>9500</c:v>
+                </c:pt>
+                <c:pt idx="1331">
+                  <c:v>9500</c:v>
+                </c:pt>
+                <c:pt idx="1332">
+                  <c:v>9500</c:v>
+                </c:pt>
+                <c:pt idx="1333">
+                  <c:v>9500</c:v>
+                </c:pt>
+                <c:pt idx="1334">
+                  <c:v>9500</c:v>
+                </c:pt>
+                <c:pt idx="1335">
+                  <c:v>9500</c:v>
+                </c:pt>
+                <c:pt idx="1336">
+                  <c:v>9500</c:v>
+                </c:pt>
+                <c:pt idx="1337">
+                  <c:v>9500</c:v>
+                </c:pt>
+                <c:pt idx="1338">
+                  <c:v>9500</c:v>
+                </c:pt>
+                <c:pt idx="1339">
+                  <c:v>9500</c:v>
+                </c:pt>
+                <c:pt idx="1340">
+                  <c:v>9500</c:v>
+                </c:pt>
+                <c:pt idx="1341">
+                  <c:v>9500</c:v>
+                </c:pt>
+                <c:pt idx="1342">
+                  <c:v>9500</c:v>
+                </c:pt>
+                <c:pt idx="1343">
+                  <c:v>9500</c:v>
+                </c:pt>
+                <c:pt idx="1344">
+                  <c:v>9500</c:v>
+                </c:pt>
+                <c:pt idx="1345">
+                  <c:v>9500</c:v>
+                </c:pt>
+                <c:pt idx="1346">
+                  <c:v>9500</c:v>
+                </c:pt>
+                <c:pt idx="1347">
+                  <c:v>9500</c:v>
+                </c:pt>
+                <c:pt idx="1348">
+                  <c:v>9500</c:v>
+                </c:pt>
+                <c:pt idx="1349">
+                  <c:v>9500</c:v>
+                </c:pt>
+                <c:pt idx="1350">
+                  <c:v>9500</c:v>
+                </c:pt>
+                <c:pt idx="1351">
+                  <c:v>9500</c:v>
+                </c:pt>
+                <c:pt idx="1352">
+                  <c:v>9500</c:v>
+                </c:pt>
+                <c:pt idx="1353">
                   <c:v>9500</c:v>
                 </c:pt>
               </c:numCache>
@@ -4834,138 +4969,138 @@
               <c:f>SampleBBandOutput!$M$2:$M$1490</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="1314"/>
+                <c:ptCount val="1359"/>
                 <c:pt idx="0">
-                  <c:v>304</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>304</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>304</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>304</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>304</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>304</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>304</c:v>
+                  <c:v>76</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>304</c:v>
+                  <c:v>152</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>304</c:v>
+                  <c:v>228</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>304</c:v>
+                  <c:v>228</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>304</c:v>
+                  <c:v>228</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>304</c:v>
+                  <c:v>228</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>304</c:v>
+                  <c:v>228</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>304</c:v>
+                  <c:v>228</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>304</c:v>
+                  <c:v>228</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>304</c:v>
+                  <c:v>228</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>304</c:v>
+                  <c:v>228</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>304</c:v>
+                  <c:v>228</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>304</c:v>
+                  <c:v>228</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>304</c:v>
+                  <c:v>228</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>304</c:v>
+                  <c:v>228</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>304</c:v>
+                  <c:v>228</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>304</c:v>
+                  <c:v>228</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>304</c:v>
+                  <c:v>228</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>304</c:v>
+                  <c:v>228</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>304</c:v>
+                  <c:v>228</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>304</c:v>
+                  <c:v>228</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>304</c:v>
+                  <c:v>228</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>304</c:v>
+                  <c:v>228</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>304</c:v>
+                  <c:v>228</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>304</c:v>
+                  <c:v>228</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>304</c:v>
+                  <c:v>228</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>304</c:v>
+                  <c:v>228</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>304</c:v>
+                  <c:v>228</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>304</c:v>
+                  <c:v>228</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>304</c:v>
+                  <c:v>228</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>304</c:v>
+                  <c:v>228</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>304</c:v>
+                  <c:v>228</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>304</c:v>
+                  <c:v>228</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>304</c:v>
+                  <c:v>228</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>304</c:v>
+                  <c:v>228</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>304</c:v>
+                  <c:v>228</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>304</c:v>
+                  <c:v>228</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>304</c:v>
+                  <c:v>228</c:v>
                 </c:pt>
                 <c:pt idx="44">
                   <c:v>304</c:v>
@@ -7077,139 +7212,139 @@
                   <c:v>304</c:v>
                 </c:pt>
                 <c:pt idx="747">
-                  <c:v>380</c:v>
+                  <c:v>304</c:v>
                 </c:pt>
                 <c:pt idx="748">
-                  <c:v>380</c:v>
+                  <c:v>304</c:v>
                 </c:pt>
                 <c:pt idx="749">
-                  <c:v>380</c:v>
+                  <c:v>304</c:v>
                 </c:pt>
                 <c:pt idx="750">
-                  <c:v>380</c:v>
+                  <c:v>304</c:v>
                 </c:pt>
                 <c:pt idx="751">
-                  <c:v>380</c:v>
+                  <c:v>304</c:v>
                 </c:pt>
                 <c:pt idx="752">
-                  <c:v>380</c:v>
+                  <c:v>304</c:v>
                 </c:pt>
                 <c:pt idx="753">
-                  <c:v>380</c:v>
+                  <c:v>304</c:v>
                 </c:pt>
                 <c:pt idx="754">
-                  <c:v>380</c:v>
+                  <c:v>304</c:v>
                 </c:pt>
                 <c:pt idx="755">
-                  <c:v>380</c:v>
+                  <c:v>304</c:v>
                 </c:pt>
                 <c:pt idx="756">
-                  <c:v>380</c:v>
+                  <c:v>304</c:v>
                 </c:pt>
                 <c:pt idx="757">
-                  <c:v>380</c:v>
+                  <c:v>304</c:v>
                 </c:pt>
                 <c:pt idx="758">
-                  <c:v>380</c:v>
+                  <c:v>304</c:v>
                 </c:pt>
                 <c:pt idx="759">
-                  <c:v>380</c:v>
+                  <c:v>304</c:v>
                 </c:pt>
                 <c:pt idx="760">
-                  <c:v>380</c:v>
+                  <c:v>304</c:v>
                 </c:pt>
                 <c:pt idx="761">
-                  <c:v>380</c:v>
+                  <c:v>304</c:v>
                 </c:pt>
                 <c:pt idx="762">
-                  <c:v>380</c:v>
+                  <c:v>304</c:v>
                 </c:pt>
                 <c:pt idx="763">
-                  <c:v>380</c:v>
+                  <c:v>304</c:v>
                 </c:pt>
                 <c:pt idx="764">
-                  <c:v>380</c:v>
+                  <c:v>304</c:v>
                 </c:pt>
                 <c:pt idx="765">
-                  <c:v>380</c:v>
+                  <c:v>304</c:v>
                 </c:pt>
                 <c:pt idx="766">
-                  <c:v>380</c:v>
+                  <c:v>304</c:v>
                 </c:pt>
                 <c:pt idx="767">
-                  <c:v>380</c:v>
+                  <c:v>304</c:v>
                 </c:pt>
                 <c:pt idx="768">
-                  <c:v>380</c:v>
+                  <c:v>304</c:v>
                 </c:pt>
                 <c:pt idx="769">
-                  <c:v>380</c:v>
+                  <c:v>304</c:v>
                 </c:pt>
                 <c:pt idx="770">
-                  <c:v>380</c:v>
+                  <c:v>304</c:v>
                 </c:pt>
                 <c:pt idx="771">
-                  <c:v>380</c:v>
+                  <c:v>304</c:v>
                 </c:pt>
                 <c:pt idx="772">
-                  <c:v>380</c:v>
+                  <c:v>304</c:v>
                 </c:pt>
                 <c:pt idx="773">
-                  <c:v>380</c:v>
+                  <c:v>304</c:v>
                 </c:pt>
                 <c:pt idx="774">
-                  <c:v>380</c:v>
+                  <c:v>304</c:v>
                 </c:pt>
                 <c:pt idx="775">
-                  <c:v>380</c:v>
+                  <c:v>304</c:v>
                 </c:pt>
                 <c:pt idx="776">
-                  <c:v>380</c:v>
+                  <c:v>304</c:v>
                 </c:pt>
                 <c:pt idx="777">
-                  <c:v>380</c:v>
+                  <c:v>304</c:v>
                 </c:pt>
                 <c:pt idx="778">
-                  <c:v>380</c:v>
+                  <c:v>304</c:v>
                 </c:pt>
                 <c:pt idx="779">
-                  <c:v>380</c:v>
+                  <c:v>304</c:v>
                 </c:pt>
                 <c:pt idx="780">
-                  <c:v>380</c:v>
+                  <c:v>304</c:v>
                 </c:pt>
                 <c:pt idx="781">
-                  <c:v>380</c:v>
+                  <c:v>304</c:v>
                 </c:pt>
                 <c:pt idx="782">
-                  <c:v>380</c:v>
+                  <c:v>304</c:v>
                 </c:pt>
                 <c:pt idx="783">
-                  <c:v>380</c:v>
+                  <c:v>304</c:v>
                 </c:pt>
                 <c:pt idx="784">
-                  <c:v>380</c:v>
+                  <c:v>304</c:v>
                 </c:pt>
                 <c:pt idx="785">
-                  <c:v>380</c:v>
+                  <c:v>304</c:v>
                 </c:pt>
                 <c:pt idx="786">
-                  <c:v>380</c:v>
+                  <c:v>304</c:v>
                 </c:pt>
                 <c:pt idx="787">
-                  <c:v>380</c:v>
+                  <c:v>304</c:v>
                 </c:pt>
                 <c:pt idx="788">
-                  <c:v>380</c:v>
+                  <c:v>304</c:v>
                 </c:pt>
                 <c:pt idx="789">
-                  <c:v>380</c:v>
+                  <c:v>304</c:v>
                 </c:pt>
                 <c:pt idx="790">
-                  <c:v>380</c:v>
+                  <c:v>304</c:v>
                 </c:pt>
                 <c:pt idx="791">
-                  <c:v>380</c:v>
+                  <c:v>304</c:v>
                 </c:pt>
                 <c:pt idx="792">
                   <c:v>380</c:v>
@@ -7338,142 +7473,142 @@
                   <c:v>380</c:v>
                 </c:pt>
                 <c:pt idx="834">
+                  <c:v>380</c:v>
+                </c:pt>
+                <c:pt idx="835">
+                  <c:v>380</c:v>
+                </c:pt>
+                <c:pt idx="836">
+                  <c:v>380</c:v>
+                </c:pt>
+                <c:pt idx="837">
+                  <c:v>380</c:v>
+                </c:pt>
+                <c:pt idx="838">
+                  <c:v>380</c:v>
+                </c:pt>
+                <c:pt idx="839">
+                  <c:v>380</c:v>
+                </c:pt>
+                <c:pt idx="840">
+                  <c:v>380</c:v>
+                </c:pt>
+                <c:pt idx="841">
+                  <c:v>380</c:v>
+                </c:pt>
+                <c:pt idx="842">
+                  <c:v>380</c:v>
+                </c:pt>
+                <c:pt idx="843">
+                  <c:v>380</c:v>
+                </c:pt>
+                <c:pt idx="844">
+                  <c:v>380</c:v>
+                </c:pt>
+                <c:pt idx="845">
+                  <c:v>380</c:v>
+                </c:pt>
+                <c:pt idx="846">
+                  <c:v>380</c:v>
+                </c:pt>
+                <c:pt idx="847">
+                  <c:v>380</c:v>
+                </c:pt>
+                <c:pt idx="848">
+                  <c:v>380</c:v>
+                </c:pt>
+                <c:pt idx="849">
+                  <c:v>380</c:v>
+                </c:pt>
+                <c:pt idx="850">
+                  <c:v>380</c:v>
+                </c:pt>
+                <c:pt idx="851">
+                  <c:v>380</c:v>
+                </c:pt>
+                <c:pt idx="852">
+                  <c:v>380</c:v>
+                </c:pt>
+                <c:pt idx="853">
+                  <c:v>380</c:v>
+                </c:pt>
+                <c:pt idx="854">
+                  <c:v>380</c:v>
+                </c:pt>
+                <c:pt idx="855">
+                  <c:v>380</c:v>
+                </c:pt>
+                <c:pt idx="856">
+                  <c:v>380</c:v>
+                </c:pt>
+                <c:pt idx="857">
+                  <c:v>380</c:v>
+                </c:pt>
+                <c:pt idx="858">
+                  <c:v>380</c:v>
+                </c:pt>
+                <c:pt idx="859">
+                  <c:v>380</c:v>
+                </c:pt>
+                <c:pt idx="860">
+                  <c:v>380</c:v>
+                </c:pt>
+                <c:pt idx="861">
+                  <c:v>380</c:v>
+                </c:pt>
+                <c:pt idx="862">
+                  <c:v>380</c:v>
+                </c:pt>
+                <c:pt idx="863">
+                  <c:v>380</c:v>
+                </c:pt>
+                <c:pt idx="864">
+                  <c:v>380</c:v>
+                </c:pt>
+                <c:pt idx="865">
+                  <c:v>380</c:v>
+                </c:pt>
+                <c:pt idx="866">
+                  <c:v>380</c:v>
+                </c:pt>
+                <c:pt idx="867">
+                  <c:v>380</c:v>
+                </c:pt>
+                <c:pt idx="868">
+                  <c:v>380</c:v>
+                </c:pt>
+                <c:pt idx="869">
+                  <c:v>380</c:v>
+                </c:pt>
+                <c:pt idx="870">
+                  <c:v>380</c:v>
+                </c:pt>
+                <c:pt idx="871">
+                  <c:v>380</c:v>
+                </c:pt>
+                <c:pt idx="872">
+                  <c:v>380</c:v>
+                </c:pt>
+                <c:pt idx="873">
+                  <c:v>380</c:v>
+                </c:pt>
+                <c:pt idx="874">
+                  <c:v>380</c:v>
+                </c:pt>
+                <c:pt idx="875">
+                  <c:v>380</c:v>
+                </c:pt>
+                <c:pt idx="876">
+                  <c:v>380</c:v>
+                </c:pt>
+                <c:pt idx="877">
+                  <c:v>380</c:v>
+                </c:pt>
+                <c:pt idx="878">
+                  <c:v>380</c:v>
+                </c:pt>
+                <c:pt idx="879">
                   <c:v>456</c:v>
-                </c:pt>
-                <c:pt idx="835">
-                  <c:v>532</c:v>
-                </c:pt>
-                <c:pt idx="836">
-                  <c:v>532</c:v>
-                </c:pt>
-                <c:pt idx="837">
-                  <c:v>532</c:v>
-                </c:pt>
-                <c:pt idx="838">
-                  <c:v>532</c:v>
-                </c:pt>
-                <c:pt idx="839">
-                  <c:v>532</c:v>
-                </c:pt>
-                <c:pt idx="840">
-                  <c:v>532</c:v>
-                </c:pt>
-                <c:pt idx="841">
-                  <c:v>532</c:v>
-                </c:pt>
-                <c:pt idx="842">
-                  <c:v>532</c:v>
-                </c:pt>
-                <c:pt idx="843">
-                  <c:v>532</c:v>
-                </c:pt>
-                <c:pt idx="844">
-                  <c:v>532</c:v>
-                </c:pt>
-                <c:pt idx="845">
-                  <c:v>532</c:v>
-                </c:pt>
-                <c:pt idx="846">
-                  <c:v>532</c:v>
-                </c:pt>
-                <c:pt idx="847">
-                  <c:v>532</c:v>
-                </c:pt>
-                <c:pt idx="848">
-                  <c:v>532</c:v>
-                </c:pt>
-                <c:pt idx="849">
-                  <c:v>532</c:v>
-                </c:pt>
-                <c:pt idx="850">
-                  <c:v>532</c:v>
-                </c:pt>
-                <c:pt idx="851">
-                  <c:v>532</c:v>
-                </c:pt>
-                <c:pt idx="852">
-                  <c:v>532</c:v>
-                </c:pt>
-                <c:pt idx="853">
-                  <c:v>532</c:v>
-                </c:pt>
-                <c:pt idx="854">
-                  <c:v>532</c:v>
-                </c:pt>
-                <c:pt idx="855">
-                  <c:v>532</c:v>
-                </c:pt>
-                <c:pt idx="856">
-                  <c:v>532</c:v>
-                </c:pt>
-                <c:pt idx="857">
-                  <c:v>532</c:v>
-                </c:pt>
-                <c:pt idx="858">
-                  <c:v>532</c:v>
-                </c:pt>
-                <c:pt idx="859">
-                  <c:v>532</c:v>
-                </c:pt>
-                <c:pt idx="860">
-                  <c:v>532</c:v>
-                </c:pt>
-                <c:pt idx="861">
-                  <c:v>532</c:v>
-                </c:pt>
-                <c:pt idx="862">
-                  <c:v>532</c:v>
-                </c:pt>
-                <c:pt idx="863">
-                  <c:v>532</c:v>
-                </c:pt>
-                <c:pt idx="864">
-                  <c:v>532</c:v>
-                </c:pt>
-                <c:pt idx="865">
-                  <c:v>532</c:v>
-                </c:pt>
-                <c:pt idx="866">
-                  <c:v>532</c:v>
-                </c:pt>
-                <c:pt idx="867">
-                  <c:v>532</c:v>
-                </c:pt>
-                <c:pt idx="868">
-                  <c:v>532</c:v>
-                </c:pt>
-                <c:pt idx="869">
-                  <c:v>532</c:v>
-                </c:pt>
-                <c:pt idx="870">
-                  <c:v>532</c:v>
-                </c:pt>
-                <c:pt idx="871">
-                  <c:v>532</c:v>
-                </c:pt>
-                <c:pt idx="872">
-                  <c:v>532</c:v>
-                </c:pt>
-                <c:pt idx="873">
-                  <c:v>532</c:v>
-                </c:pt>
-                <c:pt idx="874">
-                  <c:v>532</c:v>
-                </c:pt>
-                <c:pt idx="875">
-                  <c:v>532</c:v>
-                </c:pt>
-                <c:pt idx="876">
-                  <c:v>532</c:v>
-                </c:pt>
-                <c:pt idx="877">
-                  <c:v>532</c:v>
-                </c:pt>
-                <c:pt idx="878">
-                  <c:v>532</c:v>
-                </c:pt>
-                <c:pt idx="879">
-                  <c:v>532</c:v>
                 </c:pt>
                 <c:pt idx="880">
                   <c:v>532</c:v>
@@ -7653,148 +7788,148 @@
                   <c:v>532</c:v>
                 </c:pt>
                 <c:pt idx="939">
+                  <c:v>532</c:v>
+                </c:pt>
+                <c:pt idx="940">
+                  <c:v>532</c:v>
+                </c:pt>
+                <c:pt idx="941">
+                  <c:v>532</c:v>
+                </c:pt>
+                <c:pt idx="942">
+                  <c:v>532</c:v>
+                </c:pt>
+                <c:pt idx="943">
+                  <c:v>532</c:v>
+                </c:pt>
+                <c:pt idx="944">
+                  <c:v>532</c:v>
+                </c:pt>
+                <c:pt idx="945">
+                  <c:v>532</c:v>
+                </c:pt>
+                <c:pt idx="946">
+                  <c:v>532</c:v>
+                </c:pt>
+                <c:pt idx="947">
+                  <c:v>532</c:v>
+                </c:pt>
+                <c:pt idx="948">
+                  <c:v>532</c:v>
+                </c:pt>
+                <c:pt idx="949">
+                  <c:v>532</c:v>
+                </c:pt>
+                <c:pt idx="950">
+                  <c:v>532</c:v>
+                </c:pt>
+                <c:pt idx="951">
+                  <c:v>532</c:v>
+                </c:pt>
+                <c:pt idx="952">
+                  <c:v>532</c:v>
+                </c:pt>
+                <c:pt idx="953">
+                  <c:v>532</c:v>
+                </c:pt>
+                <c:pt idx="954">
+                  <c:v>532</c:v>
+                </c:pt>
+                <c:pt idx="955">
+                  <c:v>532</c:v>
+                </c:pt>
+                <c:pt idx="956">
+                  <c:v>532</c:v>
+                </c:pt>
+                <c:pt idx="957">
+                  <c:v>532</c:v>
+                </c:pt>
+                <c:pt idx="958">
+                  <c:v>532</c:v>
+                </c:pt>
+                <c:pt idx="959">
+                  <c:v>532</c:v>
+                </c:pt>
+                <c:pt idx="960">
+                  <c:v>532</c:v>
+                </c:pt>
+                <c:pt idx="961">
+                  <c:v>532</c:v>
+                </c:pt>
+                <c:pt idx="962">
+                  <c:v>532</c:v>
+                </c:pt>
+                <c:pt idx="963">
+                  <c:v>532</c:v>
+                </c:pt>
+                <c:pt idx="964">
+                  <c:v>532</c:v>
+                </c:pt>
+                <c:pt idx="965">
+                  <c:v>532</c:v>
+                </c:pt>
+                <c:pt idx="966">
+                  <c:v>532</c:v>
+                </c:pt>
+                <c:pt idx="967">
+                  <c:v>532</c:v>
+                </c:pt>
+                <c:pt idx="968">
+                  <c:v>532</c:v>
+                </c:pt>
+                <c:pt idx="969">
+                  <c:v>532</c:v>
+                </c:pt>
+                <c:pt idx="970">
+                  <c:v>532</c:v>
+                </c:pt>
+                <c:pt idx="971">
+                  <c:v>532</c:v>
+                </c:pt>
+                <c:pt idx="972">
+                  <c:v>532</c:v>
+                </c:pt>
+                <c:pt idx="973">
+                  <c:v>532</c:v>
+                </c:pt>
+                <c:pt idx="974">
+                  <c:v>532</c:v>
+                </c:pt>
+                <c:pt idx="975">
+                  <c:v>532</c:v>
+                </c:pt>
+                <c:pt idx="976">
+                  <c:v>532</c:v>
+                </c:pt>
+                <c:pt idx="977">
+                  <c:v>532</c:v>
+                </c:pt>
+                <c:pt idx="978">
+                  <c:v>532</c:v>
+                </c:pt>
+                <c:pt idx="979">
+                  <c:v>532</c:v>
+                </c:pt>
+                <c:pt idx="980">
+                  <c:v>532</c:v>
+                </c:pt>
+                <c:pt idx="981">
+                  <c:v>532</c:v>
+                </c:pt>
+                <c:pt idx="982">
+                  <c:v>532</c:v>
+                </c:pt>
+                <c:pt idx="983">
+                  <c:v>532</c:v>
+                </c:pt>
+                <c:pt idx="984">
                   <c:v>608</c:v>
                 </c:pt>
-                <c:pt idx="940">
+                <c:pt idx="985">
                   <c:v>684</c:v>
                 </c:pt>
-                <c:pt idx="941">
+                <c:pt idx="986">
                   <c:v>760</c:v>
-                </c:pt>
-                <c:pt idx="942">
-                  <c:v>836</c:v>
-                </c:pt>
-                <c:pt idx="943">
-                  <c:v>836</c:v>
-                </c:pt>
-                <c:pt idx="944">
-                  <c:v>836</c:v>
-                </c:pt>
-                <c:pt idx="945">
-                  <c:v>836</c:v>
-                </c:pt>
-                <c:pt idx="946">
-                  <c:v>836</c:v>
-                </c:pt>
-                <c:pt idx="947">
-                  <c:v>836</c:v>
-                </c:pt>
-                <c:pt idx="948">
-                  <c:v>836</c:v>
-                </c:pt>
-                <c:pt idx="949">
-                  <c:v>836</c:v>
-                </c:pt>
-                <c:pt idx="950">
-                  <c:v>836</c:v>
-                </c:pt>
-                <c:pt idx="951">
-                  <c:v>836</c:v>
-                </c:pt>
-                <c:pt idx="952">
-                  <c:v>836</c:v>
-                </c:pt>
-                <c:pt idx="953">
-                  <c:v>836</c:v>
-                </c:pt>
-                <c:pt idx="954">
-                  <c:v>836</c:v>
-                </c:pt>
-                <c:pt idx="955">
-                  <c:v>836</c:v>
-                </c:pt>
-                <c:pt idx="956">
-                  <c:v>836</c:v>
-                </c:pt>
-                <c:pt idx="957">
-                  <c:v>836</c:v>
-                </c:pt>
-                <c:pt idx="958">
-                  <c:v>836</c:v>
-                </c:pt>
-                <c:pt idx="959">
-                  <c:v>836</c:v>
-                </c:pt>
-                <c:pt idx="960">
-                  <c:v>836</c:v>
-                </c:pt>
-                <c:pt idx="961">
-                  <c:v>836</c:v>
-                </c:pt>
-                <c:pt idx="962">
-                  <c:v>836</c:v>
-                </c:pt>
-                <c:pt idx="963">
-                  <c:v>836</c:v>
-                </c:pt>
-                <c:pt idx="964">
-                  <c:v>836</c:v>
-                </c:pt>
-                <c:pt idx="965">
-                  <c:v>836</c:v>
-                </c:pt>
-                <c:pt idx="966">
-                  <c:v>836</c:v>
-                </c:pt>
-                <c:pt idx="967">
-                  <c:v>836</c:v>
-                </c:pt>
-                <c:pt idx="968">
-                  <c:v>836</c:v>
-                </c:pt>
-                <c:pt idx="969">
-                  <c:v>836</c:v>
-                </c:pt>
-                <c:pt idx="970">
-                  <c:v>836</c:v>
-                </c:pt>
-                <c:pt idx="971">
-                  <c:v>836</c:v>
-                </c:pt>
-                <c:pt idx="972">
-                  <c:v>836</c:v>
-                </c:pt>
-                <c:pt idx="973">
-                  <c:v>836</c:v>
-                </c:pt>
-                <c:pt idx="974">
-                  <c:v>836</c:v>
-                </c:pt>
-                <c:pt idx="975">
-                  <c:v>836</c:v>
-                </c:pt>
-                <c:pt idx="976">
-                  <c:v>836</c:v>
-                </c:pt>
-                <c:pt idx="977">
-                  <c:v>836</c:v>
-                </c:pt>
-                <c:pt idx="978">
-                  <c:v>836</c:v>
-                </c:pt>
-                <c:pt idx="979">
-                  <c:v>836</c:v>
-                </c:pt>
-                <c:pt idx="980">
-                  <c:v>836</c:v>
-                </c:pt>
-                <c:pt idx="981">
-                  <c:v>836</c:v>
-                </c:pt>
-                <c:pt idx="982">
-                  <c:v>836</c:v>
-                </c:pt>
-                <c:pt idx="983">
-                  <c:v>836</c:v>
-                </c:pt>
-                <c:pt idx="984">
-                  <c:v>836</c:v>
-                </c:pt>
-                <c:pt idx="985">
-                  <c:v>836</c:v>
-                </c:pt>
-                <c:pt idx="986">
-                  <c:v>836</c:v>
                 </c:pt>
                 <c:pt idx="987">
                   <c:v>836</c:v>
@@ -8007,154 +8142,154 @@
                   <c:v>836</c:v>
                 </c:pt>
                 <c:pt idx="1057">
+                  <c:v>836</c:v>
+                </c:pt>
+                <c:pt idx="1058">
+                  <c:v>836</c:v>
+                </c:pt>
+                <c:pt idx="1059">
+                  <c:v>836</c:v>
+                </c:pt>
+                <c:pt idx="1060">
+                  <c:v>836</c:v>
+                </c:pt>
+                <c:pt idx="1061">
+                  <c:v>836</c:v>
+                </c:pt>
+                <c:pt idx="1062">
+                  <c:v>836</c:v>
+                </c:pt>
+                <c:pt idx="1063">
+                  <c:v>836</c:v>
+                </c:pt>
+                <c:pt idx="1064">
+                  <c:v>836</c:v>
+                </c:pt>
+                <c:pt idx="1065">
+                  <c:v>836</c:v>
+                </c:pt>
+                <c:pt idx="1066">
+                  <c:v>836</c:v>
+                </c:pt>
+                <c:pt idx="1067">
+                  <c:v>836</c:v>
+                </c:pt>
+                <c:pt idx="1068">
+                  <c:v>836</c:v>
+                </c:pt>
+                <c:pt idx="1069">
+                  <c:v>836</c:v>
+                </c:pt>
+                <c:pt idx="1070">
+                  <c:v>836</c:v>
+                </c:pt>
+                <c:pt idx="1071">
+                  <c:v>836</c:v>
+                </c:pt>
+                <c:pt idx="1072">
+                  <c:v>836</c:v>
+                </c:pt>
+                <c:pt idx="1073">
+                  <c:v>836</c:v>
+                </c:pt>
+                <c:pt idx="1074">
+                  <c:v>836</c:v>
+                </c:pt>
+                <c:pt idx="1075">
+                  <c:v>836</c:v>
+                </c:pt>
+                <c:pt idx="1076">
+                  <c:v>836</c:v>
+                </c:pt>
+                <c:pt idx="1077">
+                  <c:v>836</c:v>
+                </c:pt>
+                <c:pt idx="1078">
+                  <c:v>836</c:v>
+                </c:pt>
+                <c:pt idx="1079">
+                  <c:v>836</c:v>
+                </c:pt>
+                <c:pt idx="1080">
+                  <c:v>836</c:v>
+                </c:pt>
+                <c:pt idx="1081">
+                  <c:v>836</c:v>
+                </c:pt>
+                <c:pt idx="1082">
+                  <c:v>836</c:v>
+                </c:pt>
+                <c:pt idx="1083">
+                  <c:v>836</c:v>
+                </c:pt>
+                <c:pt idx="1084">
+                  <c:v>836</c:v>
+                </c:pt>
+                <c:pt idx="1085">
+                  <c:v>836</c:v>
+                </c:pt>
+                <c:pt idx="1086">
+                  <c:v>836</c:v>
+                </c:pt>
+                <c:pt idx="1087">
+                  <c:v>836</c:v>
+                </c:pt>
+                <c:pt idx="1088">
+                  <c:v>836</c:v>
+                </c:pt>
+                <c:pt idx="1089">
+                  <c:v>836</c:v>
+                </c:pt>
+                <c:pt idx="1090">
+                  <c:v>836</c:v>
+                </c:pt>
+                <c:pt idx="1091">
+                  <c:v>836</c:v>
+                </c:pt>
+                <c:pt idx="1092">
+                  <c:v>836</c:v>
+                </c:pt>
+                <c:pt idx="1093">
+                  <c:v>836</c:v>
+                </c:pt>
+                <c:pt idx="1094">
+                  <c:v>836</c:v>
+                </c:pt>
+                <c:pt idx="1095">
+                  <c:v>836</c:v>
+                </c:pt>
+                <c:pt idx="1096">
+                  <c:v>836</c:v>
+                </c:pt>
+                <c:pt idx="1097">
+                  <c:v>836</c:v>
+                </c:pt>
+                <c:pt idx="1098">
+                  <c:v>836</c:v>
+                </c:pt>
+                <c:pt idx="1099">
+                  <c:v>836</c:v>
+                </c:pt>
+                <c:pt idx="1100">
+                  <c:v>836</c:v>
+                </c:pt>
+                <c:pt idx="1101">
+                  <c:v>836</c:v>
+                </c:pt>
+                <c:pt idx="1102">
                   <c:v>912</c:v>
                 </c:pt>
-                <c:pt idx="1058">
+                <c:pt idx="1103">
                   <c:v>912</c:v>
                 </c:pt>
-                <c:pt idx="1059">
+                <c:pt idx="1104">
                   <c:v>912</c:v>
                 </c:pt>
-                <c:pt idx="1060">
+                <c:pt idx="1105">
                   <c:v>988</c:v>
                 </c:pt>
-                <c:pt idx="1061">
+                <c:pt idx="1106">
                   <c:v>1064</c:v>
-                </c:pt>
-                <c:pt idx="1062">
-                  <c:v>1140</c:v>
-                </c:pt>
-                <c:pt idx="1063">
-                  <c:v>1140</c:v>
-                </c:pt>
-                <c:pt idx="1064">
-                  <c:v>1140</c:v>
-                </c:pt>
-                <c:pt idx="1065">
-                  <c:v>1140</c:v>
-                </c:pt>
-                <c:pt idx="1066">
-                  <c:v>1140</c:v>
-                </c:pt>
-                <c:pt idx="1067">
-                  <c:v>1140</c:v>
-                </c:pt>
-                <c:pt idx="1068">
-                  <c:v>1140</c:v>
-                </c:pt>
-                <c:pt idx="1069">
-                  <c:v>1140</c:v>
-                </c:pt>
-                <c:pt idx="1070">
-                  <c:v>1140</c:v>
-                </c:pt>
-                <c:pt idx="1071">
-                  <c:v>1140</c:v>
-                </c:pt>
-                <c:pt idx="1072">
-                  <c:v>1140</c:v>
-                </c:pt>
-                <c:pt idx="1073">
-                  <c:v>1140</c:v>
-                </c:pt>
-                <c:pt idx="1074">
-                  <c:v>1140</c:v>
-                </c:pt>
-                <c:pt idx="1075">
-                  <c:v>1140</c:v>
-                </c:pt>
-                <c:pt idx="1076">
-                  <c:v>1140</c:v>
-                </c:pt>
-                <c:pt idx="1077">
-                  <c:v>1140</c:v>
-                </c:pt>
-                <c:pt idx="1078">
-                  <c:v>1140</c:v>
-                </c:pt>
-                <c:pt idx="1079">
-                  <c:v>1140</c:v>
-                </c:pt>
-                <c:pt idx="1080">
-                  <c:v>1140</c:v>
-                </c:pt>
-                <c:pt idx="1081">
-                  <c:v>1140</c:v>
-                </c:pt>
-                <c:pt idx="1082">
-                  <c:v>1140</c:v>
-                </c:pt>
-                <c:pt idx="1083">
-                  <c:v>1140</c:v>
-                </c:pt>
-                <c:pt idx="1084">
-                  <c:v>1140</c:v>
-                </c:pt>
-                <c:pt idx="1085">
-                  <c:v>1140</c:v>
-                </c:pt>
-                <c:pt idx="1086">
-                  <c:v>1140</c:v>
-                </c:pt>
-                <c:pt idx="1087">
-                  <c:v>1140</c:v>
-                </c:pt>
-                <c:pt idx="1088">
-                  <c:v>1140</c:v>
-                </c:pt>
-                <c:pt idx="1089">
-                  <c:v>1140</c:v>
-                </c:pt>
-                <c:pt idx="1090">
-                  <c:v>1140</c:v>
-                </c:pt>
-                <c:pt idx="1091">
-                  <c:v>1140</c:v>
-                </c:pt>
-                <c:pt idx="1092">
-                  <c:v>1140</c:v>
-                </c:pt>
-                <c:pt idx="1093">
-                  <c:v>1140</c:v>
-                </c:pt>
-                <c:pt idx="1094">
-                  <c:v>1140</c:v>
-                </c:pt>
-                <c:pt idx="1095">
-                  <c:v>1140</c:v>
-                </c:pt>
-                <c:pt idx="1096">
-                  <c:v>1140</c:v>
-                </c:pt>
-                <c:pt idx="1097">
-                  <c:v>1140</c:v>
-                </c:pt>
-                <c:pt idx="1098">
-                  <c:v>1140</c:v>
-                </c:pt>
-                <c:pt idx="1099">
-                  <c:v>1140</c:v>
-                </c:pt>
-                <c:pt idx="1100">
-                  <c:v>1140</c:v>
-                </c:pt>
-                <c:pt idx="1101">
-                  <c:v>1140</c:v>
-                </c:pt>
-                <c:pt idx="1102">
-                  <c:v>1140</c:v>
-                </c:pt>
-                <c:pt idx="1103">
-                  <c:v>1140</c:v>
-                </c:pt>
-                <c:pt idx="1104">
-                  <c:v>1140</c:v>
-                </c:pt>
-                <c:pt idx="1105">
-                  <c:v>1140</c:v>
-                </c:pt>
-                <c:pt idx="1106">
-                  <c:v>1140</c:v>
                 </c:pt>
                 <c:pt idx="1107">
                   <c:v>1140</c:v>
@@ -8541,169 +8676,169 @@
                   <c:v>1140</c:v>
                 </c:pt>
                 <c:pt idx="1235">
+                  <c:v>1140</c:v>
+                </c:pt>
+                <c:pt idx="1236">
+                  <c:v>1140</c:v>
+                </c:pt>
+                <c:pt idx="1237">
+                  <c:v>1140</c:v>
+                </c:pt>
+                <c:pt idx="1238">
+                  <c:v>1140</c:v>
+                </c:pt>
+                <c:pt idx="1239">
+                  <c:v>1140</c:v>
+                </c:pt>
+                <c:pt idx="1240">
+                  <c:v>1140</c:v>
+                </c:pt>
+                <c:pt idx="1241">
+                  <c:v>1140</c:v>
+                </c:pt>
+                <c:pt idx="1242">
+                  <c:v>1140</c:v>
+                </c:pt>
+                <c:pt idx="1243">
+                  <c:v>1140</c:v>
+                </c:pt>
+                <c:pt idx="1244">
+                  <c:v>1140</c:v>
+                </c:pt>
+                <c:pt idx="1245">
+                  <c:v>1140</c:v>
+                </c:pt>
+                <c:pt idx="1246">
+                  <c:v>1140</c:v>
+                </c:pt>
+                <c:pt idx="1247">
+                  <c:v>1140</c:v>
+                </c:pt>
+                <c:pt idx="1248">
+                  <c:v>1140</c:v>
+                </c:pt>
+                <c:pt idx="1249">
+                  <c:v>1140</c:v>
+                </c:pt>
+                <c:pt idx="1250">
+                  <c:v>1140</c:v>
+                </c:pt>
+                <c:pt idx="1251">
+                  <c:v>1140</c:v>
+                </c:pt>
+                <c:pt idx="1252">
+                  <c:v>1140</c:v>
+                </c:pt>
+                <c:pt idx="1253">
+                  <c:v>1140</c:v>
+                </c:pt>
+                <c:pt idx="1254">
+                  <c:v>1140</c:v>
+                </c:pt>
+                <c:pt idx="1255">
+                  <c:v>1140</c:v>
+                </c:pt>
+                <c:pt idx="1256">
+                  <c:v>1140</c:v>
+                </c:pt>
+                <c:pt idx="1257">
+                  <c:v>1140</c:v>
+                </c:pt>
+                <c:pt idx="1258">
+                  <c:v>1140</c:v>
+                </c:pt>
+                <c:pt idx="1259">
+                  <c:v>1140</c:v>
+                </c:pt>
+                <c:pt idx="1260">
+                  <c:v>1140</c:v>
+                </c:pt>
+                <c:pt idx="1261">
+                  <c:v>1140</c:v>
+                </c:pt>
+                <c:pt idx="1262">
+                  <c:v>1140</c:v>
+                </c:pt>
+                <c:pt idx="1263">
+                  <c:v>1140</c:v>
+                </c:pt>
+                <c:pt idx="1264">
+                  <c:v>1140</c:v>
+                </c:pt>
+                <c:pt idx="1265">
+                  <c:v>1140</c:v>
+                </c:pt>
+                <c:pt idx="1266">
+                  <c:v>1140</c:v>
+                </c:pt>
+                <c:pt idx="1267">
+                  <c:v>1140</c:v>
+                </c:pt>
+                <c:pt idx="1268">
+                  <c:v>1140</c:v>
+                </c:pt>
+                <c:pt idx="1269">
+                  <c:v>1140</c:v>
+                </c:pt>
+                <c:pt idx="1270">
+                  <c:v>1140</c:v>
+                </c:pt>
+                <c:pt idx="1271">
+                  <c:v>1140</c:v>
+                </c:pt>
+                <c:pt idx="1272">
+                  <c:v>1140</c:v>
+                </c:pt>
+                <c:pt idx="1273">
+                  <c:v>1140</c:v>
+                </c:pt>
+                <c:pt idx="1274">
+                  <c:v>1140</c:v>
+                </c:pt>
+                <c:pt idx="1275">
+                  <c:v>1140</c:v>
+                </c:pt>
+                <c:pt idx="1276">
+                  <c:v>1140</c:v>
+                </c:pt>
+                <c:pt idx="1277">
+                  <c:v>1140</c:v>
+                </c:pt>
+                <c:pt idx="1278">
+                  <c:v>1140</c:v>
+                </c:pt>
+                <c:pt idx="1279">
+                  <c:v>1140</c:v>
+                </c:pt>
+                <c:pt idx="1280">
                   <c:v>1216</c:v>
                 </c:pt>
-                <c:pt idx="1236">
+                <c:pt idx="1281">
                   <c:v>1292</c:v>
                 </c:pt>
-                <c:pt idx="1237">
+                <c:pt idx="1282">
                   <c:v>1368</c:v>
                 </c:pt>
-                <c:pt idx="1238">
+                <c:pt idx="1283">
                   <c:v>1444</c:v>
                 </c:pt>
-                <c:pt idx="1239">
+                <c:pt idx="1284">
                   <c:v>1520</c:v>
                 </c:pt>
-                <c:pt idx="1240">
+                <c:pt idx="1285">
                   <c:v>1596</c:v>
                 </c:pt>
-                <c:pt idx="1241">
+                <c:pt idx="1286">
                   <c:v>1672</c:v>
                 </c:pt>
-                <c:pt idx="1242">
+                <c:pt idx="1287">
                   <c:v>1748</c:v>
                 </c:pt>
-                <c:pt idx="1243">
+                <c:pt idx="1288">
                   <c:v>1824</c:v>
                 </c:pt>
-                <c:pt idx="1244">
+                <c:pt idx="1289">
                   <c:v>1900</c:v>
-                </c:pt>
-                <c:pt idx="1245">
-                  <c:v>1976</c:v>
-                </c:pt>
-                <c:pt idx="1246">
-                  <c:v>1976</c:v>
-                </c:pt>
-                <c:pt idx="1247">
-                  <c:v>1976</c:v>
-                </c:pt>
-                <c:pt idx="1248">
-                  <c:v>1976</c:v>
-                </c:pt>
-                <c:pt idx="1249">
-                  <c:v>1976</c:v>
-                </c:pt>
-                <c:pt idx="1250">
-                  <c:v>1976</c:v>
-                </c:pt>
-                <c:pt idx="1251">
-                  <c:v>1976</c:v>
-                </c:pt>
-                <c:pt idx="1252">
-                  <c:v>1976</c:v>
-                </c:pt>
-                <c:pt idx="1253">
-                  <c:v>1976</c:v>
-                </c:pt>
-                <c:pt idx="1254">
-                  <c:v>1976</c:v>
-                </c:pt>
-                <c:pt idx="1255">
-                  <c:v>1976</c:v>
-                </c:pt>
-                <c:pt idx="1256">
-                  <c:v>1976</c:v>
-                </c:pt>
-                <c:pt idx="1257">
-                  <c:v>1976</c:v>
-                </c:pt>
-                <c:pt idx="1258">
-                  <c:v>1976</c:v>
-                </c:pt>
-                <c:pt idx="1259">
-                  <c:v>1976</c:v>
-                </c:pt>
-                <c:pt idx="1260">
-                  <c:v>1976</c:v>
-                </c:pt>
-                <c:pt idx="1261">
-                  <c:v>1976</c:v>
-                </c:pt>
-                <c:pt idx="1262">
-                  <c:v>1976</c:v>
-                </c:pt>
-                <c:pt idx="1263">
-                  <c:v>1976</c:v>
-                </c:pt>
-                <c:pt idx="1264">
-                  <c:v>1976</c:v>
-                </c:pt>
-                <c:pt idx="1265">
-                  <c:v>1976</c:v>
-                </c:pt>
-                <c:pt idx="1266">
-                  <c:v>1976</c:v>
-                </c:pt>
-                <c:pt idx="1267">
-                  <c:v>1976</c:v>
-                </c:pt>
-                <c:pt idx="1268">
-                  <c:v>1976</c:v>
-                </c:pt>
-                <c:pt idx="1269">
-                  <c:v>1976</c:v>
-                </c:pt>
-                <c:pt idx="1270">
-                  <c:v>1976</c:v>
-                </c:pt>
-                <c:pt idx="1271">
-                  <c:v>1976</c:v>
-                </c:pt>
-                <c:pt idx="1272">
-                  <c:v>1976</c:v>
-                </c:pt>
-                <c:pt idx="1273">
-                  <c:v>1976</c:v>
-                </c:pt>
-                <c:pt idx="1274">
-                  <c:v>1976</c:v>
-                </c:pt>
-                <c:pt idx="1275">
-                  <c:v>1976</c:v>
-                </c:pt>
-                <c:pt idx="1276">
-                  <c:v>1976</c:v>
-                </c:pt>
-                <c:pt idx="1277">
-                  <c:v>1976</c:v>
-                </c:pt>
-                <c:pt idx="1278">
-                  <c:v>1976</c:v>
-                </c:pt>
-                <c:pt idx="1279">
-                  <c:v>1976</c:v>
-                </c:pt>
-                <c:pt idx="1280">
-                  <c:v>1976</c:v>
-                </c:pt>
-                <c:pt idx="1281">
-                  <c:v>1976</c:v>
-                </c:pt>
-                <c:pt idx="1282">
-                  <c:v>1976</c:v>
-                </c:pt>
-                <c:pt idx="1283">
-                  <c:v>1976</c:v>
-                </c:pt>
-                <c:pt idx="1284">
-                  <c:v>1976</c:v>
-                </c:pt>
-                <c:pt idx="1285">
-                  <c:v>1976</c:v>
-                </c:pt>
-                <c:pt idx="1286">
-                  <c:v>1976</c:v>
-                </c:pt>
-                <c:pt idx="1287">
-                  <c:v>1976</c:v>
-                </c:pt>
-                <c:pt idx="1288">
-                  <c:v>1976</c:v>
-                </c:pt>
-                <c:pt idx="1289">
-                  <c:v>1976</c:v>
                 </c:pt>
                 <c:pt idx="1290">
                   <c:v>1976</c:v>
@@ -8760,6 +8895,141 @@
                   <c:v>1976</c:v>
                 </c:pt>
                 <c:pt idx="1308">
+                  <c:v>1976</c:v>
+                </c:pt>
+                <c:pt idx="1309">
+                  <c:v>1976</c:v>
+                </c:pt>
+                <c:pt idx="1310">
+                  <c:v>1976</c:v>
+                </c:pt>
+                <c:pt idx="1311">
+                  <c:v>1976</c:v>
+                </c:pt>
+                <c:pt idx="1312">
+                  <c:v>1976</c:v>
+                </c:pt>
+                <c:pt idx="1313">
+                  <c:v>1976</c:v>
+                </c:pt>
+                <c:pt idx="1314">
+                  <c:v>1976</c:v>
+                </c:pt>
+                <c:pt idx="1315">
+                  <c:v>1976</c:v>
+                </c:pt>
+                <c:pt idx="1316">
+                  <c:v>1976</c:v>
+                </c:pt>
+                <c:pt idx="1317">
+                  <c:v>1976</c:v>
+                </c:pt>
+                <c:pt idx="1318">
+                  <c:v>1976</c:v>
+                </c:pt>
+                <c:pt idx="1319">
+                  <c:v>1976</c:v>
+                </c:pt>
+                <c:pt idx="1320">
+                  <c:v>1976</c:v>
+                </c:pt>
+                <c:pt idx="1321">
+                  <c:v>1976</c:v>
+                </c:pt>
+                <c:pt idx="1322">
+                  <c:v>1976</c:v>
+                </c:pt>
+                <c:pt idx="1323">
+                  <c:v>1976</c:v>
+                </c:pt>
+                <c:pt idx="1324">
+                  <c:v>1976</c:v>
+                </c:pt>
+                <c:pt idx="1325">
+                  <c:v>1976</c:v>
+                </c:pt>
+                <c:pt idx="1326">
+                  <c:v>1976</c:v>
+                </c:pt>
+                <c:pt idx="1327">
+                  <c:v>1976</c:v>
+                </c:pt>
+                <c:pt idx="1328">
+                  <c:v>1976</c:v>
+                </c:pt>
+                <c:pt idx="1329">
+                  <c:v>1976</c:v>
+                </c:pt>
+                <c:pt idx="1330">
+                  <c:v>1976</c:v>
+                </c:pt>
+                <c:pt idx="1331">
+                  <c:v>1976</c:v>
+                </c:pt>
+                <c:pt idx="1332">
+                  <c:v>1976</c:v>
+                </c:pt>
+                <c:pt idx="1333">
+                  <c:v>1976</c:v>
+                </c:pt>
+                <c:pt idx="1334">
+                  <c:v>1976</c:v>
+                </c:pt>
+                <c:pt idx="1335">
+                  <c:v>1976</c:v>
+                </c:pt>
+                <c:pt idx="1336">
+                  <c:v>1976</c:v>
+                </c:pt>
+                <c:pt idx="1337">
+                  <c:v>1976</c:v>
+                </c:pt>
+                <c:pt idx="1338">
+                  <c:v>1976</c:v>
+                </c:pt>
+                <c:pt idx="1339">
+                  <c:v>1976</c:v>
+                </c:pt>
+                <c:pt idx="1340">
+                  <c:v>1976</c:v>
+                </c:pt>
+                <c:pt idx="1341">
+                  <c:v>1976</c:v>
+                </c:pt>
+                <c:pt idx="1342">
+                  <c:v>1976</c:v>
+                </c:pt>
+                <c:pt idx="1343">
+                  <c:v>1976</c:v>
+                </c:pt>
+                <c:pt idx="1344">
+                  <c:v>1976</c:v>
+                </c:pt>
+                <c:pt idx="1345">
+                  <c:v>1976</c:v>
+                </c:pt>
+                <c:pt idx="1346">
+                  <c:v>1976</c:v>
+                </c:pt>
+                <c:pt idx="1347">
+                  <c:v>1976</c:v>
+                </c:pt>
+                <c:pt idx="1348">
+                  <c:v>1976</c:v>
+                </c:pt>
+                <c:pt idx="1349">
+                  <c:v>1976</c:v>
+                </c:pt>
+                <c:pt idx="1350">
+                  <c:v>1976</c:v>
+                </c:pt>
+                <c:pt idx="1351">
+                  <c:v>1976</c:v>
+                </c:pt>
+                <c:pt idx="1352">
+                  <c:v>1976</c:v>
+                </c:pt>
+                <c:pt idx="1353">
                   <c:v>1976</c:v>
                 </c:pt>
               </c:numCache>
@@ -9806,8 +10076,8 @@
   <dimension ref="A1:M1490"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A1479" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B1489" sqref="B1489"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C139" sqref="C139"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
@@ -12849,7 +13119,7 @@
         <v>8367.6621516923806</v>
       </c>
     </row>
-    <row r="132" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A132">
         <v>90017</v>
       </c>
@@ -12896,7 +13166,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="133" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A133">
         <v>90017</v>
       </c>
@@ -12943,7 +13213,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="134" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A134">
         <v>90022</v>
       </c>
@@ -12990,7 +13260,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="135" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A135">
         <v>90022</v>
       </c>
@@ -13037,7 +13307,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="136" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A136">
         <v>90044</v>
       </c>
@@ -13084,7 +13354,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="137" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A137">
         <v>90111</v>
       </c>
@@ -13131,7 +13401,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="138" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A138">
         <v>90111</v>
       </c>
@@ -13178,7 +13448,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="139" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A139">
         <v>90122</v>
       </c>
@@ -13225,7 +13495,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="140" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A140">
         <v>90141</v>
       </c>
@@ -13272,7 +13542,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="141" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A141">
         <v>90141</v>
       </c>
@@ -13319,7 +13589,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="142" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A142">
         <v>90141</v>
       </c>
@@ -13366,7 +13636,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="143" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A143">
         <v>90141</v>
       </c>
@@ -13413,7 +13683,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="144" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A144">
         <v>90141</v>
       </c>
@@ -13460,7 +13730,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="145" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A145">
         <v>90141</v>
       </c>
@@ -13507,7 +13777,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="146" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A146">
         <v>90158</v>
       </c>
@@ -13554,7 +13824,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="147" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A147">
         <v>90158</v>
       </c>
@@ -13601,7 +13871,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="148" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A148">
         <v>90158</v>
       </c>
@@ -13648,7 +13918,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="149" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A149">
         <v>90158</v>
       </c>
@@ -13695,7 +13965,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="150" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A150">
         <v>90222</v>
       </c>
@@ -13742,7 +14012,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="151" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A151">
         <v>90222</v>
       </c>
@@ -13789,7 +14059,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="152" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
+    <row r="152" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A152">
         <v>90222</v>
       </c>
@@ -13836,7 +14106,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="153" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
+    <row r="153" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A153">
         <v>90222</v>
       </c>
@@ -13883,7 +14153,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="154" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
+    <row r="154" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A154">
         <v>90222</v>
       </c>
@@ -13930,7 +14200,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="155" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
+    <row r="155" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A155">
         <v>90222</v>
       </c>
@@ -13977,7 +14247,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="156" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
+    <row r="156" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A156">
         <v>90223</v>
       </c>
@@ -14024,7 +14294,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="157" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
+    <row r="157" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A157">
         <v>90228</v>
       </c>
@@ -14071,7 +14341,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="158" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
+    <row r="158" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A158">
         <v>90228</v>
       </c>
@@ -14118,7 +14388,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="159" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
+    <row r="159" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A159">
         <v>90228</v>
       </c>
@@ -14165,7 +14435,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="160" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
+    <row r="160" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A160">
         <v>90233</v>
       </c>
@@ -14212,7 +14482,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="161" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
+    <row r="161" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A161">
         <v>90233</v>
       </c>
@@ -14259,7 +14529,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="162" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
+    <row r="162" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A162">
         <v>90233</v>
       </c>
@@ -14306,7 +14576,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="163" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
+    <row r="163" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A163">
         <v>90234</v>
       </c>
@@ -14353,7 +14623,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="164" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
+    <row r="164" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A164">
         <v>90239</v>
       </c>
@@ -14400,7 +14670,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="165" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
+    <row r="165" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A165">
         <v>90239</v>
       </c>
@@ -14447,7 +14717,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="166" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
+    <row r="166" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A166">
         <v>90304</v>
       </c>
@@ -14494,7 +14764,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="167" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
+    <row r="167" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A167">
         <v>90306</v>
       </c>
@@ -14541,7 +14811,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="168" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
+    <row r="168" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A168">
         <v>90310</v>
       </c>
@@ -14588,7 +14858,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="169" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
+    <row r="169" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A169">
         <v>90310</v>
       </c>
@@ -14635,7 +14905,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="170" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
+    <row r="170" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A170">
         <v>90310</v>
       </c>
@@ -14682,7 +14952,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="171" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
+    <row r="171" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A171">
         <v>90318</v>
       </c>
@@ -14729,7 +14999,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="172" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
+    <row r="172" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A172">
         <v>90318</v>
       </c>
@@ -14776,7 +15046,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="173" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
+    <row r="173" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A173">
         <v>90323</v>
       </c>
@@ -14823,7 +15093,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="174" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
+    <row r="174" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A174">
         <v>90326</v>
       </c>
@@ -14870,7 +15140,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="175" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
+    <row r="175" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A175">
         <v>90334</v>
       </c>
@@ -14917,7 +15187,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="176" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
+    <row r="176" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A176">
         <v>90337</v>
       </c>
